--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/1U3I3I3I3I3I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/1U3I3I3I3I3I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7F0A4E-F09A-49AA-804C-86B91C6A218C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60197B2E-9797-4E15-9CA4-D56B620FA0FD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A8448A-291F-4B92-BC87-E16B7D12CF9E}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,8 +843,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +897,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1993,7 +1993,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2155,7 +2155,7 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2169,7 +2169,7 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
